--- a/数据整理/stocks/A股/科创板/688056-莱伯泰科.xlsx
+++ b/数据整理/stocks/A股/科创板/688056-莱伯泰科.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,12 +22,18 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
@@ -43,10 +49,22 @@
     <t>泰康品质生活混合C</t>
   </si>
   <si>
+    <t>3.81</t>
+  </si>
+  <si>
+    <t>1.13</t>
+  </si>
+  <si>
     <t>84.84</t>
   </si>
   <si>
     <t>3.99</t>
+  </si>
+  <si>
+    <t>0.1520</t>
+  </si>
+  <si>
+    <t>0.0451</t>
   </si>
 </sst>
 </file>
@@ -404,13 +422,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,44 +444,62 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3">
         <v>5</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688056-莱伯泰科.xlsx
+++ b/数据整理/stocks/A股/科创板/688056-莱伯泰科.xlsx
@@ -1,102 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>010874</t>
-  </si>
-  <si>
-    <t>010875</t>
-  </si>
-  <si>
-    <t>泰康品质生活混合A</t>
-  </si>
-  <si>
-    <t>泰康品质生活混合C</t>
-  </si>
-  <si>
-    <t>3.81</t>
-  </si>
-  <si>
-    <t>1.13</t>
-  </si>
-  <si>
-    <t>84.84</t>
-  </si>
-  <si>
-    <t>3.99</t>
-  </si>
-  <si>
-    <t>0.1520</t>
-  </si>
-  <si>
-    <t>0.0451</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -119,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -421,89 +446,759 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010874</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1520</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010875</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002581</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>38.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1508</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002514</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>35.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1490</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002582</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>38.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>25.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0796</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002515</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>35.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005416</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>22.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0728</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>25.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001537</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中加改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003165</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001861</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>25.42</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>25.72</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001972</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>22.44</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688056-莱伯泰科.xlsx
+++ b/数据整理/stocks/A股/科创板/688056-莱伯泰科.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1201,4 +1202,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002581</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>47.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0986</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002514</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>40.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0927</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002582</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>47.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002515</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>40.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001972</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688056-莱伯泰科.xlsx
+++ b/数据整理/stocks/A股/科创板/688056-莱伯泰科.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1448,4 +1449,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688056-莱伯泰科.xlsx
+++ b/数据整理/stocks/A股/科创板/688056-莱伯泰科.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1457,7 +1458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1468,17 +1469,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1488,14 +1509,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.3</v>
+          <t>008050</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>同泰慧择混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1504,14 +1547,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.88</v>
+          <t>000788</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源中国成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1520,13 +1585,135 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>008051</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>同泰慧择混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.2</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688056-莱伯泰科.xlsx
+++ b/数据整理/stocks/A股/科创板/688056-莱伯泰科.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,129 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010874</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>泰康品质生活混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>84.84</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1520</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>010875</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>泰康品质生活混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>84.84</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0451</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
+      <c r="D3" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -586,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -607,7 +575,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -637,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002581</t>
+          <t>008050</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>招商丰凯灵活配置混合A</t>
+          <t>同泰慧择混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>38.64</t>
+          <t>89.72</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1508</t>
+          <t>0.0526</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -675,32 +643,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002514</t>
+          <t>000788</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>招商丰益灵活配置混合A</t>
+          <t>前海开源中国成长灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>35.14</t>
+          <t>93.33</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1490</t>
+          <t>0.0080</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -713,492 +681,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002582</t>
+          <t>008051</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>招商丰凯灵活配置混合C</t>
+          <t>同泰慧择混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>38.64</t>
+          <t>89.72</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0970</t>
+          <t>0.0046</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009667</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>鹏华安庆混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>8.75</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>25.72</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0796</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>002515</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>招商丰益灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>35.14</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0763</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005416</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>鹏华尊惠18个月定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>7.91</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>22.44</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0728</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009230</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>鹏华安和混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>7.75</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>25.42</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0713</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
         <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001537</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中加改革红利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.53</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.17</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0561</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>003165</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>鹏华弘嘉灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.85</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0483</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001861</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>富安达健康人生灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>90.91</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0292</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009231</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>鹏华安和混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>25.42</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0173</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>009668</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>鹏华安庆混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>25.72</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0149</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>003166</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>鹏华弘嘉灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>93.85</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0077</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>001972</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>80.30</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>7.53</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0053</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>005417</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>鹏华尊惠18个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>22.44</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0052</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1458,7 +970,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1479,7 +991,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1509,36 +1021,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008050</t>
+          <t>002581</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>同泰慧择混合A</t>
+          <t>招商丰凯灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.72</t>
+          <t>38.64</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0526</t>
+          <t>0.1508</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1547,32 +1059,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000788</t>
+          <t>002514</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源中国成长灵活配置混合</t>
+          <t>招商丰益灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.33</t>
+          <t>35.14</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0080</t>
+          <t>0.1490</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1585,36 +1097,492 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008051</t>
+          <t>002582</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>同泰慧择混合C</t>
+          <t>招商丰凯灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.72</t>
+          <t>38.64</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0046</t>
+          <t>0.0970</t>
         </is>
       </c>
       <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>25.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0796</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002515</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>35.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005416</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>22.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0728</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>25.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001537</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中加改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003165</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001861</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>25.42</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>25.72</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001972</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>22.44</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1628,96 +1596,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.07000000000000001</v>
+          <t>010874</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1520</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>010875</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>15</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.2</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688056-莱伯泰科.xlsx
+++ b/数据整理/stocks/A股/科创板/688056-莱伯泰科.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.88</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -549,6 +566,290 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002307</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华多元视野灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002863</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金信深圳成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>180028</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华永祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005117</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005251</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华多元动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005118</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -718,7 +1019,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -964,7 +1265,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1590,7 +1891,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
